--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="520" windowWidth="25600" windowHeight="18500" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="18700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="radius" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -414,13 +414,37 @@
   </si>
   <si>
     <t>29 W Broadway Ave, Minneapolis, MN 55411</t>
+  </si>
+  <si>
+    <t>Downtown Cabaret</t>
+  </si>
+  <si>
+    <t>115 S 4th St, Minneapolis, MN 55401</t>
+  </si>
+  <si>
+    <t>515 Washington Avenue South, Minneapolis, MN 55415</t>
+  </si>
+  <si>
+    <t>eagleBOLTbar</t>
+  </si>
+  <si>
+    <t>422 Hennepin Ave, Minneapolis, MN 55401</t>
+  </si>
+  <si>
+    <t>The Brass Rail Lounge</t>
+  </si>
+  <si>
+    <t>14 N 5th St, Minneapolis, MN 55403</t>
+  </si>
+  <si>
+    <t>Sneak Pete's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,6 +485,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -479,7 +508,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,13 +602,158 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -626,6 +800,78 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -672,6 +918,78 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1053,10 +1371,10 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>44.984658000000003</v>
+        <v>44.984743999999999</v>
       </c>
       <c r="F2">
-        <v>-93.273376999999996</v>
+        <v>-93.273309999999995</v>
       </c>
       <c r="G2" t="s">
         <v>120</v>
@@ -1079,10 +1397,10 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>44.983367000000001</v>
+        <v>44.983372000000003</v>
       </c>
       <c r="F3">
-        <v>-93.272283999999999</v>
+        <v>-93.272226000000003</v>
       </c>
       <c r="G3" t="s">
         <v>120</v>
@@ -1105,10 +1423,10 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>44.979056999999997</v>
+        <v>44.979092000000001</v>
       </c>
       <c r="F4">
-        <v>-93.264427999999995</v>
+        <v>-93.264455999999996</v>
       </c>
       <c r="G4" t="s">
         <v>120</v>
@@ -1131,10 +1449,10 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>44.979959999999998</v>
+        <v>44.979965</v>
       </c>
       <c r="F5">
-        <v>-93.27261</v>
+        <v>-93.272518000000005</v>
       </c>
       <c r="G5" t="s">
         <v>120</v>
@@ -1157,10 +1475,10 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>44.980139999999999</v>
+        <v>44.979967000000002</v>
       </c>
       <c r="F6">
-        <v>-93.272779999999997</v>
+        <v>-93.272823000000002</v>
       </c>
       <c r="G6" t="s">
         <v>120</v>
@@ -1183,10 +1501,10 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>44.978679999999997</v>
+        <v>44.978662</v>
       </c>
       <c r="F7">
-        <v>-93.276979999999995</v>
+        <v>-93.276955000000001</v>
       </c>
       <c r="G7" t="s">
         <v>120</v>
@@ -1209,10 +1527,10 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>44.977426088458401</v>
+        <v>44.977311999999998</v>
       </c>
       <c r="F8">
-        <v>-93.275489502223806</v>
+        <v>-93.275375999999994</v>
       </c>
       <c r="G8" t="s">
         <v>120</v>
@@ -1235,10 +1553,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>44.981929999999998</v>
+        <v>44.981932999999998</v>
       </c>
       <c r="F9">
-        <v>-93.272220000000004</v>
+        <v>-93.272199000000001</v>
       </c>
       <c r="G9" t="s">
         <v>120</v>
@@ -1261,10 +1579,10 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>44.983885243356802</v>
+        <v>44.983449</v>
       </c>
       <c r="F10">
-        <v>-93.270986507017994</v>
+        <v>-93.271439000000001</v>
       </c>
       <c r="G10" t="s">
         <v>120</v>
@@ -1287,10 +1605,10 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>44.979188000000001</v>
+        <v>44.979168999999999</v>
       </c>
       <c r="F11">
-        <v>-93.264317000000005</v>
+        <v>-93.264307000000002</v>
       </c>
       <c r="G11" t="s">
         <v>120</v>
@@ -1301,22 +1619,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12">
-        <v>44.980499999999999</v>
+        <v>44.978630000000003</v>
       </c>
       <c r="F12">
-        <v>-93.271979999999999</v>
+        <v>-93.267876000000001</v>
       </c>
       <c r="G12" t="s">
         <v>120</v>
@@ -1327,22 +1645,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13">
-        <v>44.976672999999998</v>
+        <v>44.980446999999998</v>
       </c>
       <c r="F13">
-        <v>-93.276995999999997</v>
+        <v>-93.271911000000003</v>
       </c>
       <c r="G13" t="s">
         <v>120</v>
@@ -1353,126 +1671,126 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>44.966140000000003</v>
+        <v>44.976837000000003</v>
       </c>
       <c r="F14">
-        <v>-93.287019999999998</v>
+        <v>-93.277062000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>44.968269999999997</v>
+        <v>44.978349000000001</v>
       </c>
       <c r="F15">
-        <v>-93.286820000000006</v>
+        <v>-93.260873000000004</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>44.973010000000002</v>
+        <v>44.980127000000003</v>
       </c>
       <c r="F16">
-        <v>-93.286280000000005</v>
+        <v>-93.272886</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>44.968670000000003</v>
+        <v>44.979959999999998</v>
       </c>
       <c r="F17">
-        <v>-93.277379999999994</v>
+        <v>-93.272344000000004</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>99</v>
       </c>
       <c r="E18">
-        <v>44.969569999999997</v>
+        <v>44.966293</v>
       </c>
       <c r="F18">
-        <v>-93.276030000000006</v>
+        <v>-93.287650999999997</v>
       </c>
       <c r="G18" t="s">
         <v>65</v>
@@ -1483,22 +1801,22 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
       </c>
       <c r="E19">
-        <v>44.971440999999999</v>
+        <v>44.968026000000002</v>
       </c>
       <c r="F19">
-        <v>-93.275869</v>
+        <v>-93.286942999999994</v>
       </c>
       <c r="G19" t="s">
         <v>65</v>
@@ -1509,22 +1827,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
       </c>
       <c r="E20">
-        <v>44.969296999999997</v>
+        <v>44.968026000000002</v>
       </c>
       <c r="F20">
-        <v>-93.270840000000007</v>
+        <v>-93.286942999999994</v>
       </c>
       <c r="G20" t="s">
         <v>65</v>
@@ -1535,22 +1853,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
       </c>
       <c r="E21">
-        <v>44.972200000000001</v>
+        <v>44.968662000000002</v>
       </c>
       <c r="F21">
-        <v>-93.268320000000003</v>
+        <v>-93.277467000000001</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -1561,22 +1879,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
       </c>
       <c r="E22">
-        <v>44.972279999999998</v>
+        <v>44.969541</v>
       </c>
       <c r="F22">
-        <v>-93.260390000000001</v>
+        <v>-93.276028999999994</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -1587,22 +1905,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
       </c>
       <c r="E23">
-        <v>44.970700000000001</v>
+        <v>44.971314</v>
       </c>
       <c r="F23">
-        <v>-93.258579999999995</v>
+        <v>-93.275524000000004</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -1613,22 +1931,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24">
-        <v>44.969110000000001</v>
+        <v>44.969441000000003</v>
       </c>
       <c r="F24">
-        <v>-93.255449999999996</v>
+        <v>-93.270612999999997</v>
       </c>
       <c r="G24" t="s">
         <v>65</v>
@@ -1639,22 +1957,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
       <c r="E25">
-        <v>44.975279999999998</v>
+        <v>44.972248999999998</v>
       </c>
       <c r="F25">
-        <v>-93.272049999999993</v>
+        <v>-93.268270999999999</v>
       </c>
       <c r="G25" t="s">
         <v>65</v>
@@ -1665,22 +1983,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
       </c>
       <c r="E26">
-        <v>44.981592999999997</v>
+        <v>44.972315000000002</v>
       </c>
       <c r="F26">
-        <v>-93.273713000000001</v>
+        <v>-93.260566999999995</v>
       </c>
       <c r="G26" t="s">
         <v>65</v>
@@ -1691,22 +2009,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
       </c>
       <c r="E27">
-        <v>44.974159999999998</v>
+        <v>44.970742000000001</v>
       </c>
       <c r="F27">
-        <v>-93.269890000000004</v>
+        <v>-93.258527999999998</v>
       </c>
       <c r="G27" t="s">
         <v>65</v>
@@ -1717,22 +2035,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28">
-        <v>44.98574</v>
+        <v>44.968966999999999</v>
       </c>
       <c r="F28">
-        <v>-93.270430000000005</v>
+        <v>-93.255296000000001</v>
       </c>
       <c r="G28" t="s">
         <v>65</v>
@@ -1743,22 +2061,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
       </c>
       <c r="E29">
-        <v>44.985878999999997</v>
+        <v>44.975231999999998</v>
       </c>
       <c r="F29">
-        <v>-93.276090999999994</v>
+        <v>-93.271941999999996</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
@@ -1769,22 +2087,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
       </c>
       <c r="E30">
-        <v>44.975573644678597</v>
+        <v>44.981751000000003</v>
       </c>
       <c r="F30">
-        <v>-93.278260963975001</v>
+        <v>-93.27355</v>
       </c>
       <c r="G30" t="s">
         <v>65</v>
@@ -1795,25 +2113,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
       </c>
       <c r="E31">
-        <v>44.979950000000002</v>
+        <v>44.97437</v>
       </c>
       <c r="F31">
-        <v>-93.286060000000006</v>
+        <v>-93.270268999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
         <v>123</v>
@@ -1821,25 +2139,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
       </c>
       <c r="E32">
-        <v>44.973736000000002</v>
+        <v>44.985816999999997</v>
       </c>
       <c r="F32">
-        <v>-93.286317999999994</v>
+        <v>-93.270300000000006</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -1847,25 +2165,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33">
-        <v>44.978397000000001</v>
+        <v>44.985861</v>
       </c>
       <c r="F33">
-        <v>-93.271792000000005</v>
+        <v>-93.276319000000001</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>123</v>
@@ -1873,25 +2191,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
       </c>
       <c r="E34">
-        <v>44.982857907424403</v>
+        <v>44.974817999999999</v>
       </c>
       <c r="F34">
-        <v>-93.274655406264799</v>
+        <v>-93.278041999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>123</v>
@@ -1899,22 +2217,22 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
       <c r="E35">
-        <v>44.974024041425899</v>
+        <v>44.980035999999998</v>
       </c>
       <c r="F35">
-        <v>-93.282346536989394</v>
+        <v>-93.286231000000001</v>
       </c>
       <c r="G35" t="s">
         <v>121</v>
@@ -1925,22 +2243,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
       </c>
       <c r="E36">
-        <v>44.975573644678597</v>
+        <v>44.973770999999999</v>
       </c>
       <c r="F36">
-        <v>-93.278260963975001</v>
+        <v>-93.286175</v>
       </c>
       <c r="G36" t="s">
         <v>121</v>
@@ -1951,22 +2269,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
       </c>
       <c r="E37">
-        <v>44.979738167637798</v>
+        <v>44.978347999999997</v>
       </c>
       <c r="F37">
-        <v>-93.274903819096494</v>
+        <v>-93.271867999999998</v>
       </c>
       <c r="G37" t="s">
         <v>121</v>
@@ -1977,22 +2295,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
       </c>
       <c r="E38">
-        <v>44.975705883578001</v>
+        <v>44.984997999999997</v>
       </c>
       <c r="F38">
-        <v>-93.272393280177099</v>
+        <v>-93.275904999999995</v>
       </c>
       <c r="G38" t="s">
         <v>121</v>
@@ -2003,22 +2321,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
       </c>
       <c r="E39">
-        <v>44.982219999999998</v>
+        <v>44.974108000000001</v>
       </c>
       <c r="F39">
-        <v>-93.265029999999996</v>
+        <v>-93.282666000000006</v>
       </c>
       <c r="G39" t="s">
         <v>121</v>
@@ -2029,22 +2347,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>99</v>
       </c>
       <c r="E40">
-        <v>44.981879999999997</v>
+        <v>44.974817999999999</v>
       </c>
       <c r="F40">
-        <v>-93.263769999999994</v>
+        <v>-93.278041999999999</v>
       </c>
       <c r="G40" t="s">
         <v>121</v>
@@ -2055,22 +2373,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
         <v>99</v>
       </c>
       <c r="E41">
-        <v>44.977410999999996</v>
+        <v>44.980210999999997</v>
       </c>
       <c r="F41">
-        <v>-93.260170000000002</v>
+        <v>-93.275041000000002</v>
       </c>
       <c r="G41" t="s">
         <v>121</v>
@@ -2081,22 +2399,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
       </c>
       <c r="E42">
-        <v>44.972279999999998</v>
+        <v>44.976025999999997</v>
       </c>
       <c r="F42">
-        <v>-93.260390000000001</v>
+        <v>-93.272452999999999</v>
       </c>
       <c r="G42" t="s">
         <v>121</v>
@@ -2107,22 +2425,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
       </c>
       <c r="E43">
-        <v>44.974820000000001</v>
+        <v>44.982646000000003</v>
       </c>
       <c r="F43">
-        <v>-93.27637</v>
+        <v>-93.265099000000006</v>
       </c>
       <c r="G43" t="s">
         <v>121</v>
@@ -2133,25 +2451,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
       </c>
       <c r="E44">
-        <v>44.974625628876602</v>
+        <v>44.981808000000001</v>
       </c>
       <c r="F44">
-        <v>-93.261284917045401</v>
+        <v>-93.263818999999998</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H44" t="s">
         <v>123</v>
@@ -2159,25 +2477,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>99</v>
       </c>
       <c r="E45">
-        <v>44.968260000000001</v>
+        <v>44.977536999999998</v>
       </c>
       <c r="F45">
-        <v>-93.280079999999998</v>
+        <v>-93.260176000000001</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
         <v>123</v>
@@ -2185,25 +2503,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
       </c>
       <c r="E46">
-        <v>44.975259999999999</v>
+        <v>44.972315000000002</v>
       </c>
       <c r="F46">
-        <v>-93.276880000000006</v>
+        <v>-93.260566999999995</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H46" t="s">
         <v>123</v>
@@ -2211,25 +2529,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
       </c>
       <c r="E47">
-        <v>44.980559999999997</v>
+        <v>44.974724000000002</v>
       </c>
       <c r="F47">
-        <v>-93.270099999999999</v>
+        <v>-93.275656999999995</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H47" t="s">
         <v>123</v>
@@ -2237,79 +2555,183 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E48">
-        <v>44.947893999999998</v>
+        <v>44.974772999999999</v>
       </c>
       <c r="F48">
-        <v>-93.288484999999994</v>
+        <v>-93.261601999999996</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E49">
-        <v>44.948079</v>
+        <v>44.968248000000003</v>
       </c>
       <c r="F49">
-        <v>-93.288820999999999</v>
+        <v>-93.280457999999996</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>44.975661000000002</v>
+      </c>
+      <c r="F50">
+        <v>-93.277401999999995</v>
+      </c>
+      <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <v>44.980257000000002</v>
+      </c>
+      <c r="F51">
+        <v>-93.270033999999995</v>
+      </c>
+      <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>44.947893999999998</v>
+      </c>
+      <c r="F52">
+        <v>-93.288484999999994</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>44.948079</v>
+      </c>
+      <c r="F53">
+        <v>-93.288820999999999</v>
+      </c>
+      <c r="G53" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
         <v>129</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>130</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>44.999116999999998</v>
       </c>
-      <c r="F50">
+      <c r="F54">
         <v>-93.278656999999995</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G54" t="s">
         <v>120</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H54" t="s">
         <v>124</v>
       </c>
     </row>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -508,8 +508,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -753,7 +755,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -872,6 +874,7 @@
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -990,6 +993,7 @@
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1321,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2645,10 +2649,10 @@
         <v>99</v>
       </c>
       <c r="E51">
-        <v>44.980257000000002</v>
+        <v>44.980828000000002</v>
       </c>
       <c r="F51">
-        <v>-93.270033999999995</v>
+        <v>-93.270036000000005</v>
       </c>
       <c r="G51" t="s">
         <v>102</v>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="18700" tabRatio="500"/>
+    <workbookView xWindow="1280" yWindow="2540" windowWidth="25600" windowHeight="18700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="radius" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>Sneak Pete's</t>
+  </si>
+  <si>
+    <t>Azul Nightclub</t>
+  </si>
+  <si>
+    <t>400 N 3rd Ave, Minneapolis, MN 55401</t>
   </si>
 </sst>
 </file>
@@ -508,8 +514,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -755,7 +777,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -875,6 +897,14 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -994,6 +1024,14 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1323,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1779,48 +1817,48 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>44.966293</v>
+        <v>44.982843000000003</v>
       </c>
       <c r="F18">
-        <v>-93.287650999999997</v>
+        <v>-93.275183999999996</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
       </c>
       <c r="E19">
-        <v>44.968026000000002</v>
+        <v>44.966293</v>
       </c>
       <c r="F19">
-        <v>-93.286942999999994</v>
+        <v>-93.287650999999997</v>
       </c>
       <c r="G19" t="s">
         <v>65</v>
@@ -1831,13 +1869,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -1857,22 +1895,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
       </c>
       <c r="E21">
-        <v>44.968662000000002</v>
+        <v>44.968026000000002</v>
       </c>
       <c r="F21">
-        <v>-93.277467000000001</v>
+        <v>-93.286942999999994</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -1883,22 +1921,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
       </c>
       <c r="E22">
-        <v>44.969541</v>
+        <v>44.968662000000002</v>
       </c>
       <c r="F22">
-        <v>-93.276028999999994</v>
+        <v>-93.277467000000001</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -1909,22 +1947,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
       </c>
       <c r="E23">
-        <v>44.971314</v>
+        <v>44.969541</v>
       </c>
       <c r="F23">
-        <v>-93.275524000000004</v>
+        <v>-93.276028999999994</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -1935,22 +1973,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24">
-        <v>44.969441000000003</v>
+        <v>44.971314</v>
       </c>
       <c r="F24">
-        <v>-93.270612999999997</v>
+        <v>-93.275524000000004</v>
       </c>
       <c r="G24" t="s">
         <v>65</v>
@@ -1961,22 +1999,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
       <c r="E25">
-        <v>44.972248999999998</v>
+        <v>44.969441000000003</v>
       </c>
       <c r="F25">
-        <v>-93.268270999999999</v>
+        <v>-93.270612999999997</v>
       </c>
       <c r="G25" t="s">
         <v>65</v>
@@ -1987,22 +2025,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
       </c>
       <c r="E26">
-        <v>44.972315000000002</v>
+        <v>44.972248999999998</v>
       </c>
       <c r="F26">
-        <v>-93.260566999999995</v>
+        <v>-93.268270999999999</v>
       </c>
       <c r="G26" t="s">
         <v>65</v>
@@ -2013,22 +2051,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
       </c>
       <c r="E27">
-        <v>44.970742000000001</v>
+        <v>44.972315000000002</v>
       </c>
       <c r="F27">
-        <v>-93.258527999999998</v>
+        <v>-93.260566999999995</v>
       </c>
       <c r="G27" t="s">
         <v>65</v>
@@ -2039,22 +2077,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28">
-        <v>44.968966999999999</v>
+        <v>44.970742000000001</v>
       </c>
       <c r="F28">
-        <v>-93.255296000000001</v>
+        <v>-93.258527999999998</v>
       </c>
       <c r="G28" t="s">
         <v>65</v>
@@ -2065,22 +2103,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
       </c>
       <c r="E29">
-        <v>44.975231999999998</v>
+        <v>44.968966999999999</v>
       </c>
       <c r="F29">
-        <v>-93.271941999999996</v>
+        <v>-93.255296000000001</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
@@ -2091,22 +2129,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
       </c>
       <c r="E30">
-        <v>44.981751000000003</v>
+        <v>44.975231999999998</v>
       </c>
       <c r="F30">
-        <v>-93.27355</v>
+        <v>-93.271941999999996</v>
       </c>
       <c r="G30" t="s">
         <v>65</v>
@@ -2117,22 +2155,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
       </c>
       <c r="E31">
-        <v>44.97437</v>
+        <v>44.981751000000003</v>
       </c>
       <c r="F31">
-        <v>-93.270268999999999</v>
+        <v>-93.27355</v>
       </c>
       <c r="G31" t="s">
         <v>65</v>
@@ -2143,22 +2181,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
       </c>
       <c r="E32">
-        <v>44.985816999999997</v>
+        <v>44.97437</v>
       </c>
       <c r="F32">
-        <v>-93.270300000000006</v>
+        <v>-93.270268999999999</v>
       </c>
       <c r="G32" t="s">
         <v>65</v>
@@ -2169,22 +2207,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33">
-        <v>44.985861</v>
+        <v>44.985816999999997</v>
       </c>
       <c r="F33">
-        <v>-93.276319000000001</v>
+        <v>-93.270300000000006</v>
       </c>
       <c r="G33" t="s">
         <v>65</v>
@@ -2195,22 +2233,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
       </c>
       <c r="E34">
-        <v>44.974817999999999</v>
+        <v>44.985861</v>
       </c>
       <c r="F34">
-        <v>-93.278041999999999</v>
+        <v>-93.276319000000001</v>
       </c>
       <c r="G34" t="s">
         <v>65</v>
@@ -2221,25 +2259,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
       <c r="E35">
-        <v>44.980035999999998</v>
+        <v>44.974817999999999</v>
       </c>
       <c r="F35">
-        <v>-93.286231000000001</v>
+        <v>-93.278041999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>123</v>
@@ -2247,22 +2285,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
       </c>
       <c r="E36">
-        <v>44.973770999999999</v>
+        <v>44.980035999999998</v>
       </c>
       <c r="F36">
-        <v>-93.286175</v>
+        <v>-93.286231000000001</v>
       </c>
       <c r="G36" t="s">
         <v>121</v>
@@ -2273,22 +2311,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
       </c>
       <c r="E37">
-        <v>44.978347999999997</v>
+        <v>44.973770999999999</v>
       </c>
       <c r="F37">
-        <v>-93.271867999999998</v>
+        <v>-93.286175</v>
       </c>
       <c r="G37" t="s">
         <v>121</v>
@@ -2299,22 +2337,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
       </c>
       <c r="E38">
-        <v>44.984997999999997</v>
+        <v>44.978347999999997</v>
       </c>
       <c r="F38">
-        <v>-93.275904999999995</v>
+        <v>-93.271867999999998</v>
       </c>
       <c r="G38" t="s">
         <v>121</v>
@@ -2325,22 +2363,22 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
       </c>
       <c r="E39">
-        <v>44.974108000000001</v>
+        <v>44.984997999999997</v>
       </c>
       <c r="F39">
-        <v>-93.282666000000006</v>
+        <v>-93.275904999999995</v>
       </c>
       <c r="G39" t="s">
         <v>121</v>
@@ -2351,22 +2389,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>99</v>
       </c>
       <c r="E40">
-        <v>44.974817999999999</v>
+        <v>44.974108000000001</v>
       </c>
       <c r="F40">
-        <v>-93.278041999999999</v>
+        <v>-93.282666000000006</v>
       </c>
       <c r="G40" t="s">
         <v>121</v>
@@ -2377,22 +2415,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
         <v>99</v>
       </c>
       <c r="E41">
-        <v>44.980210999999997</v>
+        <v>44.974817999999999</v>
       </c>
       <c r="F41">
-        <v>-93.275041000000002</v>
+        <v>-93.278041999999999</v>
       </c>
       <c r="G41" t="s">
         <v>121</v>
@@ -2403,22 +2441,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
       </c>
       <c r="E42">
-        <v>44.976025999999997</v>
+        <v>44.980210999999997</v>
       </c>
       <c r="F42">
-        <v>-93.272452999999999</v>
+        <v>-93.275041000000002</v>
       </c>
       <c r="G42" t="s">
         <v>121</v>
@@ -2429,22 +2467,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
       </c>
       <c r="E43">
-        <v>44.982646000000003</v>
+        <v>44.976025999999997</v>
       </c>
       <c r="F43">
-        <v>-93.265099000000006</v>
+        <v>-93.272452999999999</v>
       </c>
       <c r="G43" t="s">
         <v>121</v>
@@ -2455,22 +2493,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
       </c>
       <c r="E44">
-        <v>44.981808000000001</v>
+        <v>44.982646000000003</v>
       </c>
       <c r="F44">
-        <v>-93.263818999999998</v>
+        <v>-93.265099000000006</v>
       </c>
       <c r="G44" t="s">
         <v>121</v>
@@ -2481,22 +2519,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
         <v>99</v>
       </c>
       <c r="E45">
-        <v>44.977536999999998</v>
+        <v>44.981808000000001</v>
       </c>
       <c r="F45">
-        <v>-93.260176000000001</v>
+        <v>-93.263818999999998</v>
       </c>
       <c r="G45" t="s">
         <v>121</v>
@@ -2507,22 +2545,22 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
       </c>
       <c r="E46">
-        <v>44.972315000000002</v>
+        <v>44.977536999999998</v>
       </c>
       <c r="F46">
-        <v>-93.260566999999995</v>
+        <v>-93.260176000000001</v>
       </c>
       <c r="G46" t="s">
         <v>121</v>
@@ -2533,22 +2571,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
       </c>
       <c r="E47">
-        <v>44.974724000000002</v>
+        <v>44.972315000000002</v>
       </c>
       <c r="F47">
-        <v>-93.275656999999995</v>
+        <v>-93.260566999999995</v>
       </c>
       <c r="G47" t="s">
         <v>121</v>
@@ -2559,25 +2597,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
       </c>
       <c r="E48">
-        <v>44.974772999999999</v>
+        <v>44.974724000000002</v>
       </c>
       <c r="F48">
-        <v>-93.261601999999996</v>
+        <v>-93.275656999999995</v>
       </c>
       <c r="G48" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H48" t="s">
         <v>123</v>
@@ -2585,22 +2623,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
       </c>
       <c r="E49">
-        <v>44.968248000000003</v>
+        <v>44.974772999999999</v>
       </c>
       <c r="F49">
-        <v>-93.280457999999996</v>
+        <v>-93.261601999999996</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -2611,22 +2649,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
       </c>
       <c r="E50">
-        <v>44.975661000000002</v>
+        <v>44.968248000000003</v>
       </c>
       <c r="F50">
-        <v>-93.277401999999995</v>
+        <v>-93.280457999999996</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -2637,25 +2675,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
       </c>
       <c r="E51">
-        <v>44.980828000000002</v>
+        <v>44.975661000000002</v>
       </c>
       <c r="F51">
-        <v>-93.270036000000005</v>
+        <v>-93.277401999999995</v>
       </c>
       <c r="G51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H51" t="s">
         <v>123</v>
@@ -2663,48 +2701,48 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52">
+        <v>44.980828000000002</v>
+      </c>
+      <c r="F52">
+        <v>-93.270036000000005</v>
+      </c>
+      <c r="G52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52">
-        <v>44.947893999999998</v>
-      </c>
-      <c r="F52">
-        <v>-93.288484999999994</v>
-      </c>
-      <c r="G52" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16">
-      <c r="A53" t="s">
-        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>127</v>
+      <c r="C53" t="s">
+        <v>126</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53">
-        <v>44.948079</v>
+        <v>44.947893999999998</v>
       </c>
       <c r="F53">
-        <v>-93.288820999999999</v>
+        <v>-93.288484999999994</v>
       </c>
       <c r="G53" t="s">
         <v>120</v>
@@ -2713,29 +2751,55 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="16">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54">
-        <v>44.999116999999998</v>
+        <v>44.948079</v>
       </c>
       <c r="F54">
-        <v>-93.278656999999995</v>
+        <v>-93.288820999999999</v>
       </c>
       <c r="G54" t="s">
         <v>120</v>
       </c>
       <c r="H54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>44.999116999999998</v>
+      </c>
+      <c r="F55">
+        <v>-93.278656999999995</v>
+      </c>
+      <c r="G55" t="s">
+        <v>120</v>
+      </c>
+      <c r="H55" t="s">
         <v>124</v>
       </c>
     </row>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2540" windowWidth="25600" windowHeight="18700" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="300" windowWidth="25600" windowHeight="18900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="radius" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -440,17 +440,92 @@
     <t>Sneak Pete's</t>
   </si>
   <si>
-    <t>Azul Nightclub</t>
-  </si>
-  <si>
-    <t>400 N 3rd Ave, Minneapolis, MN 55401</t>
+    <t>redlight_n</t>
+  </si>
+  <si>
+    <t>YWCA Minneapolis Downtown</t>
+  </si>
+  <si>
+    <t>2405, 1130 Nicollet Ave, Minneapolis, MN 55403</t>
+  </si>
+  <si>
+    <t>Dayton YMCA at Gaviidae</t>
+  </si>
+  <si>
+    <t>651 Nicollet Mall #300, Minneapolis, MN 55402</t>
+  </si>
+  <si>
+    <t>church_n</t>
+  </si>
+  <si>
+    <t>child_n</t>
+  </si>
+  <si>
+    <t>school_n</t>
+  </si>
+  <si>
+    <t>Wesley United Methodist Church</t>
+  </si>
+  <si>
+    <t>Catholic Charities Exodus Residence</t>
+  </si>
+  <si>
+    <t>819, 2nd Ave S, Minneapolis, MN 55402</t>
+  </si>
+  <si>
+    <t>Grace in the City Church</t>
+  </si>
+  <si>
+    <t>609 S 10th St, Minneapolis, MN 55404</t>
+  </si>
+  <si>
+    <t>Thrivent Financial</t>
+  </si>
+  <si>
+    <t>625 S 4th Ave, Minneapolis, MN 55415</t>
+  </si>
+  <si>
+    <t>Catholic Charities</t>
+  </si>
+  <si>
+    <t>510 S 8th St, Minneapolis, MN 55404</t>
+  </si>
+  <si>
+    <t>House of Charity Food Center</t>
+  </si>
+  <si>
+    <t>714 Park Ave, Minneapolis, MN 55404</t>
+  </si>
+  <si>
+    <t>Salvation Army</t>
+  </si>
+  <si>
+    <t>53 Glenwood Ave #1, Minneapolis, MN 55403</t>
+  </si>
+  <si>
+    <t>Harbor Light Shelter</t>
+  </si>
+  <si>
+    <t>1010 Currie Ave, Minneapolis, MN 55403</t>
+  </si>
+  <si>
+    <t>Booth Manor</t>
+  </si>
+  <si>
+    <t>60-104 Willow St, Minneapolis, MN 55403</t>
+  </si>
+  <si>
+    <t>Higher Ground Catholic Charities</t>
+  </si>
+  <si>
+    <t>165 Glenwood Ave, Minneapolis, MN 55405</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +571,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -514,7 +597,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="255">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,14 +853,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="255">
+  <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -905,6 +995,9 @@
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1032,6 +1125,9 @@
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1361,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="A1:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1817,51 +1913,51 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E18">
-        <v>44.982843000000003</v>
+        <v>44.966076999999999</v>
       </c>
       <c r="F18">
-        <v>-93.275183999999996</v>
+        <v>-93.286531999999994</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>99</v>
       </c>
       <c r="E19">
-        <v>44.966293</v>
+        <v>44.968031000000003</v>
       </c>
       <c r="F19">
-        <v>-93.287650999999997</v>
+        <v>-93.286874999999995</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
         <v>123</v>
@@ -1869,13 +1965,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -1887,7 +1983,7 @@
         <v>-93.286942999999994</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
         <v>123</v>
@@ -1895,22 +1991,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
       </c>
       <c r="E21">
-        <v>44.968026000000002</v>
+        <v>44.968662000000002</v>
       </c>
       <c r="F21">
-        <v>-93.286942999999994</v>
+        <v>-93.277467000000001</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -1921,22 +2017,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
       </c>
       <c r="E22">
-        <v>44.968662000000002</v>
+        <v>44.969541</v>
       </c>
       <c r="F22">
-        <v>-93.277467000000001</v>
+        <v>-93.276028999999994</v>
       </c>
       <c r="G22" t="s">
         <v>65</v>
@@ -1947,22 +2043,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
       </c>
       <c r="E23">
-        <v>44.969541</v>
+        <v>44.971314</v>
       </c>
       <c r="F23">
-        <v>-93.276028999999994</v>
+        <v>-93.275524000000004</v>
       </c>
       <c r="G23" t="s">
         <v>65</v>
@@ -1973,22 +2069,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
       </c>
       <c r="E24">
-        <v>44.971314</v>
+        <v>44.969441000000003</v>
       </c>
       <c r="F24">
-        <v>-93.275524000000004</v>
+        <v>-93.270612999999997</v>
       </c>
       <c r="G24" t="s">
         <v>65</v>
@@ -1999,22 +2095,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
       <c r="E25">
-        <v>44.969441000000003</v>
+        <v>44.972248999999998</v>
       </c>
       <c r="F25">
-        <v>-93.270612999999997</v>
+        <v>-93.268270999999999</v>
       </c>
       <c r="G25" t="s">
         <v>65</v>
@@ -2025,25 +2121,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
       </c>
       <c r="E26">
-        <v>44.972248999999998</v>
+        <v>44.972264000000003</v>
       </c>
       <c r="F26">
-        <v>-93.268270999999999</v>
+        <v>-93.260461000000006</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H26" t="s">
         <v>123</v>
@@ -2051,25 +2147,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
       </c>
       <c r="E27">
-        <v>44.972315000000002</v>
+        <v>44.970742000000001</v>
       </c>
       <c r="F27">
-        <v>-93.260566999999995</v>
+        <v>-93.258527999999998</v>
       </c>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
         <v>123</v>
@@ -2077,25 +2173,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
       </c>
       <c r="E28">
-        <v>44.970742000000001</v>
+        <v>44.968966999999999</v>
       </c>
       <c r="F28">
-        <v>-93.258527999999998</v>
+        <v>-93.255296000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
         <v>123</v>
@@ -2103,22 +2199,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
       </c>
       <c r="E29">
-        <v>44.968966999999999</v>
+        <v>44.975231999999998</v>
       </c>
       <c r="F29">
-        <v>-93.255296000000001</v>
+        <v>-93.271941999999996</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
@@ -2129,22 +2225,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
       </c>
       <c r="E30">
-        <v>44.975231999999998</v>
+        <v>44.981751000000003</v>
       </c>
       <c r="F30">
-        <v>-93.271941999999996</v>
+        <v>-93.27355</v>
       </c>
       <c r="G30" t="s">
         <v>65</v>
@@ -2155,22 +2251,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
       </c>
       <c r="E31">
-        <v>44.981751000000003</v>
+        <v>44.97437</v>
       </c>
       <c r="F31">
-        <v>-93.27355</v>
+        <v>-93.270268999999999</v>
       </c>
       <c r="G31" t="s">
         <v>65</v>
@@ -2181,25 +2277,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
       </c>
       <c r="E32">
-        <v>44.97437</v>
+        <v>44.985816999999997</v>
       </c>
       <c r="F32">
-        <v>-93.270268999999999</v>
+        <v>-93.270300000000006</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
         <v>123</v>
@@ -2207,25 +2303,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33">
-        <v>44.985816999999997</v>
+        <v>44.985861</v>
       </c>
       <c r="F33">
-        <v>-93.270300000000006</v>
+        <v>-93.276319000000001</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
         <v>123</v>
@@ -2233,22 +2329,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
       </c>
       <c r="E34">
-        <v>44.985861</v>
+        <v>44.974817999999999</v>
       </c>
       <c r="F34">
-        <v>-93.276319000000001</v>
+        <v>-93.278041999999999</v>
       </c>
       <c r="G34" t="s">
         <v>65</v>
@@ -2259,25 +2355,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
       </c>
       <c r="E35">
-        <v>44.974817999999999</v>
+        <v>44.980035999999998</v>
       </c>
       <c r="F35">
-        <v>-93.278041999999999</v>
+        <v>-93.286231000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="H35" t="s">
         <v>123</v>
@@ -2285,25 +2381,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
       </c>
       <c r="E36">
-        <v>44.980035999999998</v>
+        <v>44.973770999999999</v>
       </c>
       <c r="F36">
-        <v>-93.286231000000001</v>
+        <v>-93.286175</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
@@ -2311,25 +2407,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
       </c>
       <c r="E37">
-        <v>44.973770999999999</v>
+        <v>44.978347999999997</v>
       </c>
       <c r="F37">
-        <v>-93.286175</v>
+        <v>-93.271867999999998</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
         <v>123</v>
@@ -2337,22 +2433,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
       </c>
       <c r="E38">
-        <v>44.978347999999997</v>
+        <v>44.984997999999997</v>
       </c>
       <c r="F38">
-        <v>-93.271867999999998</v>
+        <v>-93.275904999999995</v>
       </c>
       <c r="G38" t="s">
         <v>121</v>
@@ -2363,25 +2459,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
       </c>
       <c r="E39">
-        <v>44.984997999999997</v>
+        <v>44.974108000000001</v>
       </c>
       <c r="F39">
-        <v>-93.275904999999995</v>
+        <v>-93.282666000000006</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H39" t="s">
         <v>123</v>
@@ -2389,22 +2485,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>99</v>
       </c>
       <c r="E40">
-        <v>44.974108000000001</v>
+        <v>44.974817999999999</v>
       </c>
       <c r="F40">
-        <v>-93.282666000000006</v>
+        <v>-93.278041999999999</v>
       </c>
       <c r="G40" t="s">
         <v>121</v>
@@ -2415,22 +2511,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
         <v>99</v>
       </c>
       <c r="E41">
-        <v>44.974817999999999</v>
+        <v>44.980210999999997</v>
       </c>
       <c r="F41">
-        <v>-93.278041999999999</v>
+        <v>-93.275041000000002</v>
       </c>
       <c r="G41" t="s">
         <v>121</v>
@@ -2441,22 +2537,22 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
       </c>
       <c r="E42">
-        <v>44.980210999999997</v>
+        <v>44.976025999999997</v>
       </c>
       <c r="F42">
-        <v>-93.275041000000002</v>
+        <v>-93.272452999999999</v>
       </c>
       <c r="G42" t="s">
         <v>121</v>
@@ -2467,22 +2563,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
       </c>
       <c r="E43">
-        <v>44.976025999999997</v>
+        <v>44.982646000000003</v>
       </c>
       <c r="F43">
-        <v>-93.272452999999999</v>
+        <v>-93.265099000000006</v>
       </c>
       <c r="G43" t="s">
         <v>121</v>
@@ -2493,22 +2589,22 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
       </c>
       <c r="E44">
-        <v>44.982646000000003</v>
+        <v>44.981808000000001</v>
       </c>
       <c r="F44">
-        <v>-93.265099000000006</v>
+        <v>-93.263818999999998</v>
       </c>
       <c r="G44" t="s">
         <v>121</v>
@@ -2519,25 +2615,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
         <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>99</v>
       </c>
       <c r="E45">
-        <v>44.981808000000001</v>
+        <v>44.977536999999998</v>
       </c>
       <c r="F45">
-        <v>-93.263818999999998</v>
+        <v>-93.260176000000001</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H45" t="s">
         <v>123</v>
@@ -2545,25 +2641,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
       </c>
       <c r="E46">
-        <v>44.977536999999998</v>
+        <v>44.972315000000002</v>
       </c>
       <c r="F46">
-        <v>-93.260176000000001</v>
+        <v>-93.260566999999995</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H46" t="s">
         <v>123</v>
@@ -2571,22 +2667,22 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
       </c>
       <c r="E47">
-        <v>44.972315000000002</v>
+        <v>44.974724000000002</v>
       </c>
       <c r="F47">
-        <v>-93.260566999999995</v>
+        <v>-93.275656999999995</v>
       </c>
       <c r="G47" t="s">
         <v>121</v>
@@ -2597,25 +2693,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
       </c>
       <c r="E48">
-        <v>44.974724000000002</v>
+        <v>44.974772999999999</v>
       </c>
       <c r="F48">
-        <v>-93.275656999999995</v>
+        <v>-93.261601999999996</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="H48" t="s">
         <v>123</v>
@@ -2623,22 +2719,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
       </c>
       <c r="E49">
-        <v>44.974772999999999</v>
+        <v>44.968248000000003</v>
       </c>
       <c r="F49">
-        <v>-93.261601999999996</v>
+        <v>-93.280457999999996</v>
       </c>
       <c r="G49" t="s">
         <v>98</v>
@@ -2649,22 +2745,22 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
       </c>
       <c r="E50">
-        <v>44.968248000000003</v>
+        <v>44.975661000000002</v>
       </c>
       <c r="F50">
-        <v>-93.280457999999996</v>
+        <v>-93.277401999999995</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
@@ -2675,25 +2771,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
       </c>
       <c r="E51">
-        <v>44.975661000000002</v>
+        <v>44.980828000000002</v>
       </c>
       <c r="F51">
-        <v>-93.277401999999995</v>
+        <v>-93.270036000000005</v>
       </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H51" t="s">
         <v>123</v>
@@ -2701,77 +2797,77 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>44.980828000000002</v>
+        <v>44.947893999999998</v>
       </c>
       <c r="F52">
-        <v>-93.270036000000005</v>
+        <v>-93.288484999999994</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="C53" t="s">
-        <v>126</v>
+      <c r="C53" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D53" t="s">
         <v>25</v>
       </c>
       <c r="E53">
-        <v>44.947893999999998</v>
+        <v>44.948079</v>
       </c>
       <c r="F53">
-        <v>-93.288484999999994</v>
+        <v>-93.288820999999999</v>
       </c>
       <c r="G53" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
       </c>
       <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54">
-        <v>44.948079</v>
+        <v>44.999116999999998</v>
       </c>
       <c r="F54">
-        <v>-93.288820999999999</v>
+        <v>-93.278656999999995</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H54" t="s">
         <v>124</v>
@@ -2779,28 +2875,340 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E55">
-        <v>44.999116999999998</v>
+        <v>44.972543000000002</v>
       </c>
       <c r="F55">
-        <v>-93.278656999999995</v>
+        <v>-93.276618999999997</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56">
+        <v>44.977268000000002</v>
+      </c>
+      <c r="F56">
+        <v>-93.271321999999998</v>
+      </c>
+      <c r="G56" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57">
+        <v>44.969541</v>
+      </c>
+      <c r="F57">
+        <v>-93.276028999999994</v>
+      </c>
+      <c r="G57" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58">
+        <v>44.974176999999997</v>
+      </c>
+      <c r="F58">
+        <v>-93.270842000000002</v>
+      </c>
+      <c r="G58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59">
+        <v>44.969441000000003</v>
+      </c>
+      <c r="F59">
+        <v>-93.270612999999997</v>
+      </c>
+      <c r="G59" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60">
+        <v>44.970160999999997</v>
+      </c>
+      <c r="F60">
+        <v>-93.266208000000006</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61">
+        <v>44.974778000000001</v>
+      </c>
+      <c r="F61">
+        <v>-93.266212999999993</v>
+      </c>
+      <c r="G61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62">
+        <v>44.973083000000003</v>
+      </c>
+      <c r="F62">
+        <v>-93.265585000000002</v>
+      </c>
+      <c r="G62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63">
+        <v>44.972661000000002</v>
+      </c>
+      <c r="F63">
+        <v>-93.263464999999997</v>
+      </c>
+      <c r="G63" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64">
+        <v>44.978673999999998</v>
+      </c>
+      <c r="F64">
+        <v>-93.279088000000002</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65">
+        <v>44.978248000000001</v>
+      </c>
+      <c r="F65">
+        <v>-93.279947000000007</v>
+      </c>
+      <c r="G65" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66">
+        <v>44.970871000000002</v>
+      </c>
+      <c r="F66">
+        <v>-93.282329000000004</v>
+      </c>
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67">
+        <v>44.978839999999998</v>
+      </c>
+      <c r="F67">
+        <v>-93.285359999999997</v>
+      </c>
+      <c r="G67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -437,9 +437,6 @@
     <t>14 N 5th St, Minneapolis, MN 55403</t>
   </si>
   <si>
-    <t>Sneak Pete's</t>
-  </si>
-  <si>
     <t>redlight_n</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>hide</t>
+  </si>
+  <si>
+    <t>Sneaky Pete's</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I67"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1478,7 +1478,7 @@
         <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1704,7 +1704,7 @@
         <v>-93.286231000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
         <v>123</v>
@@ -1733,7 +1733,7 @@
         <v>-93.286175</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
         <v>123</v>
@@ -1762,7 +1762,7 @@
         <v>-93.271867999999998</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
         <v>123</v>
@@ -1791,7 +1791,7 @@
         <v>-93.282666000000006</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
         <v>123</v>
@@ -1820,7 +1820,7 @@
         <v>-93.260176000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
         <v>123</v>
@@ -1849,7 +1849,7 @@
         <v>-93.260566999999995</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
         <v>123</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -2150,13 +2150,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
         <v>144</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
         <v>148</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>151</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
         <v>154</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>155</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
@@ -2295,13 +2295,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
         <v>163</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>164</v>
       </c>
       <c r="D32" t="s">
         <v>99</v>
@@ -2400,7 +2400,7 @@
         <v>-93.286531999999994</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
         <v>123</v>
@@ -2429,7 +2429,7 @@
         <v>-93.286874999999995</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" t="s">
         <v>123</v>
@@ -2458,7 +2458,7 @@
         <v>-93.286942999999994</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" t="s">
         <v>123</v>
@@ -2487,7 +2487,7 @@
         <v>-93.260461000000006</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
@@ -2516,7 +2516,7 @@
         <v>-93.258527999999998</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
         <v>123</v>
@@ -2545,7 +2545,7 @@
         <v>-93.255296000000001</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
         <v>123</v>
@@ -2574,7 +2574,7 @@
         <v>-93.270300000000006</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
         <v>123</v>
@@ -2603,7 +2603,7 @@
         <v>-93.276319000000001</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" t="s">
         <v>123</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
         <v>146</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>147</v>
       </c>
       <c r="D41" t="s">
         <v>99</v>
@@ -2632,7 +2632,7 @@
         <v>-93.266208000000006</v>
       </c>
       <c r="G41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" t="s">
         <v>123</v>
@@ -2643,13 +2643,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
         <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>153</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
@@ -2661,7 +2661,7 @@
         <v>-93.263464999999997</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H42" t="s">
         <v>123</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
         <v>158</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>159</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -2690,7 +2690,7 @@
         <v>-93.282329000000004</v>
       </c>
       <c r="G43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H43" t="s">
         <v>123</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
         <v>160</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
@@ -2719,7 +2719,7 @@
         <v>-93.285359999999997</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H44" t="s">
         <v>123</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
         <v>116</v>
@@ -3241,7 +3241,7 @@
         <v>-93.288484999999994</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H62" t="s">
         <v>124</v>
@@ -3270,7 +3270,7 @@
         <v>-93.288820999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H63" t="s">
         <v>124</v>
@@ -3299,7 +3299,7 @@
         <v>-93.278656999999995</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64" t="s">
         <v>124</v>
@@ -3386,7 +3386,7 @@
         <v>-93.261601999999996</v>
       </c>
       <c r="G67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H67" t="s">
         <v>123</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -3423,13 +3423,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
         <v>163</v>
-      </c>
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" t="s">
-        <v>164</v>
       </c>
       <c r="D69" t="s">
         <v>99</v>
